--- a/Excels/NPCAction_NPC动作表.xlsx
+++ b/Excels/NPCAction_NPC动作表.xlsx
@@ -183,19 +183,19 @@
             <text:p>id</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
-            <text:p>ICON</text:p>
+            <text:p>icon</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
             <text:p>type</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
-            <text:p>ActionGuid</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>v</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>r</text:p>
+            <text:p>actionGuid</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>posOffset</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>rotation</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sendStance</text:p>
@@ -1140,9 +1140,9 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.3">
   <office:meta>
-    <dc:date>2023-12-12T17:06:33.243000000</dc:date>
-    <meta:editing-duration>PT8H55M4S</meta:editing-duration>
-    <meta:editing-cycles>82</meta:editing-cycles>
+    <dc:date>2023-12-13T10:38:24.552000000</dc:date>
+    <meta:editing-duration>PT8H56M1S</meta:editing-duration>
+    <meta:editing-cycles>83</meta:editing-cycles>
     <meta:generator>LibreOffice/7.5.9.2$Windows_X86_64 LibreOffice_project/cdeefe45c17511d326101eed8008ac4092f278a9</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="260" meta:object-count="0"/>
   </office:meta>
@@ -1162,8 +1162,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="工作表1">
-              <config:config-item config:name="CursorPositionX" config:type="int">15</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">23</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">14</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">2</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -1179,7 +1179,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">工作表1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1855</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1839</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -1754,9 +1754,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2023-12-12">0000/00/00</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2023-12-13">0000/00/00</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="17:06:22.925000000">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="10:37:27.395000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
